--- a/AA_properties.xlsx
+++ b/AA_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12673\Documents\GitHub\NOPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBCF762-FE00-46C8-859F-CA5F22E3415E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B8A0FA-FE78-43DF-BF69-320C8B92E00F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48" yWindow="12" windowWidth="14520" windowHeight="12084" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,28 +150,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -179,30 +167,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA2A9B1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA2A9B1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA2A9B1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA2A9B1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +490,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +498,7 @@
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -557,7 +527,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -577,10 +547,10 @@
         <v>6.02</v>
       </c>
       <c r="G2">
-        <f>(F2-2.77)/7.99</f>
+        <f t="shared" ref="G2:G9" si="0">(F2-2.77)/7.99</f>
         <v>0.40675844806007505</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>-0.81</v>
       </c>
       <c r="I2">
@@ -588,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -608,18 +578,18 @@
         <v>5.96</v>
       </c>
       <c r="G3">
-        <f>(F3-2.77)/7.99</f>
+        <f t="shared" si="0"/>
         <v>0.39924906132665833</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>-0.69</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I23" si="0">(H3+0.81)/(2.41/0.81)</f>
+        <f t="shared" ref="I3:I23" si="1">(H3+0.81)/(2.41/0.81)</f>
         <v>4.0331950207468915E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -639,18 +609,18 @@
         <v>5.48</v>
       </c>
       <c r="G4">
-        <f>(F4-2.77)/7.99</f>
+        <f t="shared" si="0"/>
         <v>0.33917396745932421</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>-0.57999999999999996</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7302904564315392E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -670,18 +640,18 @@
         <v>5.96</v>
       </c>
       <c r="G5">
-        <f>(F5-2.77)/7.99</f>
+        <f t="shared" si="0"/>
         <v>0.39924906132665833</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>-0.53</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4107883817427393E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -701,18 +671,18 @@
         <v>5.74</v>
       </c>
       <c r="G6">
-        <f>(F6-2.77)/7.99</f>
+        <f t="shared" si="0"/>
         <v>0.37171464330413018</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>-0.44</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.12435684647302907</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -732,18 +702,18 @@
         <v>6.3</v>
       </c>
       <c r="G7">
-        <f>(F7-2.77)/7.99</f>
+        <f t="shared" si="0"/>
         <v>0.44180225281601998</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>-0.31</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16804979253112035</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -763,18 +733,18 @@
         <v>5.89</v>
       </c>
       <c r="G8">
-        <f>(F8-2.77)/7.99</f>
+        <f t="shared" si="0"/>
         <v>0.39048811013767204</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>-0.24</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1915767634854772</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -794,18 +764,18 @@
         <v>7</v>
       </c>
       <c r="G9">
-        <f>(F9-2.77)/7.99</f>
+        <f t="shared" si="0"/>
         <v>0.52941176470588236</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27224066390041496</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -827,15 +797,15 @@
       <c r="G10">
         <v>0.52941199999999999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27224066390041496</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -855,18 +825,18 @@
         <v>5.6</v>
       </c>
       <c r="G11">
-        <f>(F11-2.77)/7.99</f>
+        <f t="shared" ref="G11:G23" si="2">(F11-2.77)/7.99</f>
         <v>0.35419274092615766</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11">
         <v>0.11</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30921161825726146</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -886,18 +856,18 @@
         <v>5.65</v>
       </c>
       <c r="G12">
-        <f>(F12-2.77)/7.99</f>
+        <f t="shared" si="2"/>
         <v>0.36045056320400504</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12">
         <v>0.19</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33609958506224069</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -917,18 +887,18 @@
         <v>5.07</v>
       </c>
       <c r="G13">
-        <f>(F13-2.77)/7.99</f>
+        <f t="shared" si="2"/>
         <v>0.28785982478097627</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13">
         <v>0.22</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3461825726141079</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -948,18 +918,18 @@
         <v>5.66</v>
       </c>
       <c r="G14">
-        <f>(F14-2.77)/7.99</f>
+        <f t="shared" si="2"/>
         <v>0.36170212765957449</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14">
         <v>0.23</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34954356846473034</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -979,18 +949,18 @@
         <v>6</v>
       </c>
       <c r="G15">
-        <f>(F15-2.77)/7.99</f>
+        <f t="shared" si="2"/>
         <v>0.40425531914893614</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15">
         <v>0.33</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38315352697095439</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1010,18 +980,18 @@
         <v>5.68</v>
       </c>
       <c r="G16">
-        <f>(F16-2.77)/7.99</f>
+        <f t="shared" si="2"/>
         <v>0.36420525657071334</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16">
         <v>0.33</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38315352697095439</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1041,18 +1011,18 @@
         <v>5.41</v>
       </c>
       <c r="G17">
-        <f>(F17-2.77)/7.99</f>
+        <f t="shared" si="2"/>
         <v>0.33041301627033792</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17">
         <v>0.43</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41676348547717845</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1072,18 +1042,18 @@
         <v>10.76</v>
       </c>
       <c r="G18">
-        <f>(F18-2.77)/7.99</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.60834024896265559</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1103,18 +1073,18 @@
         <v>5.97</v>
       </c>
       <c r="G19">
-        <f>(F19-2.77)/7.99</f>
+        <f t="shared" si="2"/>
         <v>0.40050062578222773</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19">
         <v>1.1399999999999999</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6553941908713693</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1134,18 +1104,18 @@
         <v>7.59</v>
       </c>
       <c r="G20">
-        <f>(F20-2.77)/7.99</f>
+        <f t="shared" si="2"/>
         <v>0.60325406758448064</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20">
         <v>1.37</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73269709543568473</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1165,18 +1135,18 @@
         <v>3.22</v>
       </c>
       <c r="G21">
-        <f>(F21-2.77)/7.99</f>
+        <f t="shared" si="2"/>
         <v>5.6320400500625804E-2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21">
         <v>1.61</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.81336099585062238</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1196,18 +1166,18 @@
         <v>5.66</v>
       </c>
       <c r="G22">
-        <f>(F22-2.77)/7.99</f>
+        <f t="shared" si="2"/>
         <v>0.36170212765957449</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22">
         <v>1.81</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88058091286307061</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1227,14 +1197,14 @@
         <v>2.77</v>
       </c>
       <c r="G23">
-        <f>(F23-2.77)/7.99</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>2.41</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.082240663900415</v>
       </c>
     </row>
